--- a/Stocks/EMAMILTD.xlsx
+++ b/Stocks/EMAMILTD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1055.3333333333333</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1089.6912703860839</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1071.6341735564461</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>56.920911899141423</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>87.700000000000045</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>99.049999999999955</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.88541140837960708</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1091.3953030985372</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>4.7935940005586417</v>
       </c>
       <c r="Y67">
         <v>2.2491767281788371</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1093</v>
+      </c>
+      <c r="D83">
+        <v>1093</v>
+      </c>
+      <c r="E83">
+        <v>1067</v>
+      </c>
+      <c r="F83">
+        <v>1073.4000000000001</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1077.8</v>
+      </c>
+      <c r="H83">
+        <v>1083.8145661611488</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>1111.265074419935</v>
+      </c>
+      <c r="K83">
+        <v>1079.5503018537559</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N83">
+        <v>31.655169669459347</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>6.4000000000000909</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>26</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.24615384615384966</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1095.2606954750402</v>
+      </c>
+      <c r="W83">
+        <v>1099.2400587975899</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-3.979363322549716</v>
+      </c>
+      <c r="Y83">
+        <v>1.6236877760916335</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1076.8</v>
+      </c>
+      <c r="D84">
+        <v>1082.05</v>
+      </c>
+      <c r="E84">
+        <v>1057.3499999999999</v>
+      </c>
+      <c r="F84">
+        <v>1073.6500000000001</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1071.0166666666667</v>
+      </c>
+      <c r="H84">
+        <v>1077.4156164139076</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1104.7728356599494</v>
+      </c>
+      <c r="K84">
+        <v>1074.6169014418101</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>31.993144915068978</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>16.300000000000182</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>24.700000000000045</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.65991902834008709</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1091.9359730942647</v>
+      </c>
+      <c r="W84">
+        <v>1097.3444988866572</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-5.4085257923925383</v>
+      </c>
+      <c r="Y84">
+        <v>0.21724506239479902</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1082.7</v>
+      </c>
+      <c r="D85">
+        <v>1087.95</v>
+      </c>
+      <c r="E85">
+        <v>1071.05</v>
+      </c>
+      <c r="F85">
+        <v>1080</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1079.6666666666667</v>
+      </c>
+      <c r="H85">
+        <v>1078.5411415402873</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>1101.0344277355161</v>
+      </c>
+      <c r="K85">
+        <v>1073.8242566769634</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>41.221815055269943</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>8.9500000000000455</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>16.900000000000091</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.52958579881656787</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1090.099669541301</v>
+      </c>
+      <c r="W85">
+        <v>1096.0597211913494</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-5.9600516500483991</v>
+      </c>
+      <c r="Y85">
+        <v>-1.0182142800938407</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1080.55</v>
+      </c>
+      <c r="D86">
+        <v>1091.45</v>
+      </c>
+      <c r="E86">
+        <v>1072</v>
+      </c>
+      <c r="F86">
+        <v>1085</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1082.8166666666666</v>
+      </c>
+      <c r="H86">
+        <v>1080.678904103477</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1098.9045549054015</v>
+      </c>
+      <c r="K86">
+        <v>1073.4188663043049</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>48.147495674437593</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>19.450000000000045</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.66838046272493412</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1089.3151049964854</v>
+      </c>
+      <c r="W86">
+        <v>1095.2404825845827</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-5.9253775880972626</v>
+      </c>
+      <c r="Y86">
+        <v>-1.9996469416945251</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1090</v>
+      </c>
+      <c r="D87">
+        <v>1103.9000000000001</v>
+      </c>
+      <c r="E87">
+        <v>1080</v>
+      </c>
+      <c r="F87">
+        <v>1097</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1093.6333333333334</v>
+      </c>
+      <c r="H87">
+        <v>1087.1561187184052</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1100.0146538153124</v>
+      </c>
+      <c r="K87">
+        <v>1074.8813404589039</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>61.689555650795093</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>23.900000000000091</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.71129707112970442</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1090.4973965354877</v>
+      </c>
+      <c r="W87">
+        <v>1095.3708172079469</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-4.8734206724591331</v>
+      </c>
+      <c r="Y87">
+        <v>-2.5744016878474465</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1098.05</v>
+      </c>
+      <c r="D88">
+        <v>1103.2</v>
+      </c>
+      <c r="E88">
+        <v>1087.1500000000001</v>
+      </c>
+      <c r="F88">
+        <v>1095.2</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1095.1833333333334</v>
+      </c>
+      <c r="H88">
+        <v>1091.1697260258693</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>1100.7225085230207</v>
+      </c>
+      <c r="K88">
+        <v>1077.6077092458142</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>58.809734687847417</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>8.0499999999999545</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>16.049999999999955</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.50155763239875251</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1091.2208739915666</v>
+      </c>
+      <c r="W88">
+        <v>1095.3581640814323</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-4.1372900898657008</v>
+      </c>
+      <c r="Y88">
+        <v>-2.8869793682510974</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1088.0999999999999</v>
+      </c>
+      <c r="D89">
+        <v>1117.95</v>
+      </c>
+      <c r="E89">
+        <v>1088.0999999999999</v>
+      </c>
+      <c r="F89">
+        <v>1110</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1105.3500000000001</v>
+      </c>
+      <c r="H89">
+        <v>1098.2598630129346</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1104.5508399623495</v>
+      </c>
+      <c r="K89">
+        <v>1079.9393294134111</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>72.164829090112363</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>21.900000000000091</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>29.850000000000136</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.73366834170854245</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1094.1099703005564</v>
+      </c>
+      <c r="W89">
+        <v>1096.4427445198446</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-2.3327742192882397</v>
+      </c>
+      <c r="Y89">
+        <v>-2.7761383384585256</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1109.05</v>
+      </c>
+      <c r="D90">
+        <v>1122.4000000000001</v>
+      </c>
+      <c r="E90">
+        <v>1105</v>
+      </c>
+      <c r="F90">
+        <v>1105.05</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1110.8166666666666</v>
+      </c>
+      <c r="H90">
+        <v>1104.5382648398006</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1108.5173199707162</v>
+      </c>
+      <c r="K90">
+        <v>1085.508367321542</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>63.550440918551288</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>4.9999999999954525E-2</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>17.400000000000091</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>2.873563218388176E-3</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1095.7930517927784</v>
+      </c>
+      <c r="W90">
+        <v>1097.0803189998562</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-1.2872672070777753</v>
+      </c>
+      <c r="Y90">
+        <v>-2.4783641121823754</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1107</v>
+      </c>
+      <c r="D91">
+        <v>1134.9000000000001</v>
+      </c>
+      <c r="E91">
+        <v>1106.9000000000001</v>
+      </c>
+      <c r="F91">
+        <v>1121.0999999999999</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1120.9666666666667</v>
+      </c>
+      <c r="H91">
+        <v>1112.7524657532335</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1114.3801377550014</v>
+      </c>
+      <c r="K91">
+        <v>1090.2620634723105</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>75.435228605729492</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>14.199999999999818</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>28</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.50714285714285068</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1099.6864284400433</v>
+      </c>
+      <c r="W91">
+        <v>1098.8595546294964</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>0.82687381054688558</v>
+      </c>
+      <c r="Y91">
+        <v>-1.8173165276365233</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1125.7</v>
+      </c>
+      <c r="D92">
+        <v>1144.5</v>
+      </c>
+      <c r="E92">
+        <v>1101.7</v>
+      </c>
+      <c r="F92">
+        <v>1140</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1128.7333333333333</v>
+      </c>
+      <c r="H92">
+        <v>1120.7428995432833</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>1121.0734404761122</v>
+      </c>
+      <c r="K92">
+        <v>1092.8038271451303</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>83.401619904515698</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>38.299999999999955</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>42.799999999999955</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.894859813084112</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V92">
+        <v>1105.8885163723444</v>
+      </c>
+      <c r="W92">
+        <v>1101.9069950273115</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>3.9815213450328883</v>
+      </c>
+      <c r="Y92">
+        <v>-0.65754895310264105</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1131</v>
+      </c>
+      <c r="D93">
+        <v>1147</v>
+      </c>
+      <c r="E93">
+        <v>1131</v>
+      </c>
+      <c r="F93">
+        <v>1139</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1139</v>
+      </c>
+      <c r="H93">
+        <v>1129.8714497716417</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1126.8348981480872</v>
+      </c>
+      <c r="K93">
+        <v>1101.2918655573235</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>81.650341777263463</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.5</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1110.9825907765992</v>
+      </c>
+      <c r="W93">
+        <v>1104.6546250252884</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>6.327965751310785</v>
+      </c>
+      <c r="Y93">
+        <v>0.73955398778004411</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1139.95</v>
+      </c>
+      <c r="D94">
+        <v>1194.8</v>
+      </c>
+      <c r="E94">
+        <v>1126.05</v>
+      </c>
+      <c r="F94">
+        <v>1178</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1166.2833333333333</v>
+      </c>
+      <c r="H94">
+        <v>1148.0773915524874</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1141.938254115179</v>
+      </c>
+      <c r="K94">
+        <v>1106.7936732112516</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>90.932435097175997</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>51.950000000000045</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>68.75</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.75563636363636433</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1121.2929614263533</v>
+      </c>
+      <c r="W94">
+        <v>1110.087615764156</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>11.20534566219726</v>
+      </c>
+      <c r="Y94">
+        <v>2.8327123226634878</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1179</v>
+      </c>
+      <c r="D95">
+        <v>1184.5</v>
+      </c>
+      <c r="E95">
+        <v>1141.5</v>
+      </c>
+      <c r="F95">
+        <v>1159</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1161.6666666666667</v>
+      </c>
+      <c r="H95">
+        <v>1154.8720291095769</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>1151.3964198673614</v>
+      </c>
+      <c r="K95">
+        <v>1114.506190275418</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>69.517713334689375</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>17.5</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>43</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.40697674418604651</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1127.0940442838373</v>
+      </c>
+      <c r="W95">
+        <v>1113.7107553371816</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>13.383288946655739</v>
+      </c>
+      <c r="Y95">
+        <v>4.9428276474619377</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1150</v>
+      </c>
+      <c r="D96">
+        <v>1169.95</v>
+      </c>
+      <c r="E96">
+        <v>1131.0999999999999</v>
+      </c>
+      <c r="F96">
+        <v>1136.05</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1145.7</v>
+      </c>
+      <c r="H96">
+        <v>1150.2860145547884</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>1155.5194376746144</v>
+      </c>
+      <c r="K96">
+        <v>1118.1937035475473</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>51.282777004842103</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>4.9500000000000455</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>38.850000000000136</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.12741312741312813</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1128.4718836247855</v>
+      </c>
+      <c r="W96">
+        <v>1115.3655142010941</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>13.106369423691376</v>
+      </c>
+      <c r="Y96">
+        <v>6.5755360027078256</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1134</v>
+      </c>
+      <c r="D97">
+        <v>1150</v>
+      </c>
+      <c r="E97">
+        <v>1115.45</v>
+      </c>
+      <c r="F97">
+        <v>1139.9000000000001</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1135.1166666666666</v>
+      </c>
+      <c r="H97">
+        <v>1142.7013406107276</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>1154.2928959691446</v>
+      </c>
+      <c r="K97">
+        <v>1117.5839916480925</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>53.822726673174849</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>24.450000000000045</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>34.549999999999955</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.70767004341534234</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1130.2300553748184</v>
+      </c>
+      <c r="W97">
+        <v>1117.1828835195315</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>13.047171855286933</v>
+      </c>
+      <c r="Y97">
+        <v>7.8698631732236475</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1151</v>
+      </c>
+      <c r="D98">
+        <v>1164</v>
+      </c>
+      <c r="E98">
+        <v>1136</v>
+      </c>
+      <c r="F98">
+        <v>1138.8499999999999</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1146.2833333333333</v>
+      </c>
+      <c r="H98">
+        <v>1144.4923369720304</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>1156.4500301982237</v>
+      </c>
+      <c r="K98">
+        <v>1121.6764379485164</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>52.882796520068545</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>2.8499999999999091</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>28</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.10178571428571104</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1131.5562007017695</v>
+      </c>
+      <c r="W98">
+        <v>1118.7878551106774</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>12.768345591092157</v>
+      </c>
+      <c r="Y98">
+        <v>8.84955965679735</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1141</v>
+      </c>
+      <c r="D99">
+        <v>1157</v>
+      </c>
+      <c r="E99">
+        <v>1122.6500000000001</v>
+      </c>
+      <c r="F99">
+        <v>1145</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1141.55</v>
+      </c>
+      <c r="H99">
+        <v>1143.0211684860151</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>1156.5722457097295</v>
+      </c>
+      <c r="K99">
+        <v>1121.8927850710684</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>58.224146638942521</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>22.349999999999909</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>34.349999999999909</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.65065502183406021</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1133.6244775168818</v>
+      </c>
+      <c r="W99">
+        <v>1120.7294954728493</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>12.894982044032531</v>
+      </c>
+      <c r="Y99">
+        <v>9.6586441342443869</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1145</v>
+      </c>
+      <c r="D100">
+        <v>1156.8</v>
+      </c>
+      <c r="E100">
+        <v>1135.05</v>
+      </c>
+      <c r="F100">
+        <v>1137.8</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1143.2166666666665</v>
+      </c>
+      <c r="H100">
+        <v>1143.1189175763407</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1156.622857774234</v>
+      </c>
+      <c r="K100">
+        <v>1124.816610610831</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>49.939350544586162</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>2.75</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>21.75</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.12643678160919541</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1134.2668655912078</v>
+      </c>
+      <c r="W100">
+        <v>1121.9939772896753</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>12.272888301532475</v>
+      </c>
+      <c r="Y100">
+        <v>10.181492967702004</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1140</v>
+      </c>
+      <c r="D101">
+        <v>1149</v>
+      </c>
+      <c r="E101">
+        <v>1125</v>
+      </c>
+      <c r="F101">
+        <v>1128</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1134</v>
+      </c>
+      <c r="H101">
+        <v>1138.5594587881703</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1154.9288893799599</v>
+      </c>
+      <c r="K101">
+        <v>1124.8573638084242</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>40.205805344693161</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.125</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1133.3027324233296</v>
+      </c>
+      <c r="W101">
+        <v>1122.4388678608104</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>10.863864562519211</v>
+      </c>
+      <c r="Y101">
+        <v>10.317967286665446</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1131</v>
+      </c>
+      <c r="D102">
+        <v>1135.8</v>
+      </c>
+      <c r="E102">
+        <v>1110</v>
+      </c>
+      <c r="F102">
+        <v>1110.1500000000001</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1118.6500000000001</v>
+      </c>
+      <c r="H102">
+        <v>1128.6047293940851</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1150.678025073302</v>
+      </c>
+      <c r="K102">
+        <v>1121.5557274065523</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>27.847941310703462</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>0.15000000000009095</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>25.799999999999955</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>5.8139534883756283E-3</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>1129.7407735889713</v>
+      </c>
+      <c r="W102">
+        <v>1121.5285813526023</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>8.2121922363689919</v>
+      </c>
+      <c r="Y102">
+        <v>9.8968122766061555</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1109.55</v>
+      </c>
+      <c r="D103">
+        <v>1121</v>
+      </c>
+      <c r="E103">
+        <v>1080</v>
+      </c>
+      <c r="F103">
+        <v>1095</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1098.6666666666667</v>
+      </c>
+      <c r="H103">
+        <v>1113.6356980303758</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1144.0829083903461</v>
+      </c>
+      <c r="K103">
+        <v>1112.3211213162074</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>21.000019768800342</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>41</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.36585365853658536</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1124.396039190668</v>
+      </c>
+      <c r="W103">
+        <v>1119.5635012524094</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>4.8325379382586107</v>
+      </c>
+      <c r="Y103">
+        <v>8.8839574089366469</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1095</v>
+      </c>
+      <c r="D104">
+        <v>1109</v>
+      </c>
+      <c r="E104">
+        <v>1082</v>
+      </c>
+      <c r="F104">
+        <v>1093</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1094.6666666666667</v>
+      </c>
+      <c r="H104">
+        <v>1104.1511823485212</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1136.2867065258247</v>
+      </c>
+      <c r="K104">
+        <v>1105.5830943570502</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>20.181106277153656</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>27</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1119.5658793151806</v>
+      </c>
+      <c r="W104">
+        <v>1117.5958344929718</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>1.9700448222088198</v>
+      </c>
+      <c r="Y104">
+        <v>7.5011748915910816</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
